--- a/relevant_variables.xlsx
+++ b/relevant_variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vidis\Documents\Carnegie Mellon University\Data Mining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E0324B-815F-4E9B-8A42-ACAF69A5A516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C009D21B-7E74-41F8-9344-273033B262C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="93">
   <si>
     <t>Variable Names</t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t>Categorical</t>
+  </si>
+  <si>
+    <t>Target</t>
   </si>
 </sst>
 </file>
@@ -652,11 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -677,7 +679,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -696,7 +698,7 @@
         <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -707,7 +709,7 @@
         <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -718,7 +720,7 @@
         <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -809,7 +811,7 @@
         <v>57</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -820,7 +822,7 @@
         <v>58</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -831,7 +833,7 @@
         <v>59</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -867,7 +869,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -878,7 +880,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -966,7 +968,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -1109,18 +1111,18 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -1142,7 +1144,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -1154,13 +1156,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D44" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Categorical"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D44" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/relevant_variables.xlsx
+++ b/relevant_variables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vidis\Documents\Carnegie Mellon University\Data Mining\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Downloads\Data_Mining_Project-main (1)\Data_Mining_Project-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C009D21B-7E74-41F8-9344-273033B262C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EB91DC-68ED-47EA-BF12-8801F648E71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$44</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="94">
   <si>
     <t>Variable Names</t>
   </si>
@@ -180,9 +180,6 @@
     <t>Ever had arthritis</t>
   </si>
   <si>
-    <t>To Modify</t>
-  </si>
-  <si>
     <t>Categorical body mass index, public use</t>
   </si>
   <si>
@@ -307,17 +304,25 @@
   </si>
   <si>
     <t>Target</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Categorical</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -325,14 +330,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -655,20 +667,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -676,10 +688,10 @@
         <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -687,10 +699,10 @@
         <v>45</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -698,10 +710,10 @@
         <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -709,10 +721,10 @@
         <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -720,10 +732,10 @@
         <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -731,432 +743,430 @@
         <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>19</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D44" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:C44" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/relevant_variables.xlsx
+++ b/relevant_variables.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Downloads\Data_Mining_Project-main (1)\Data_Mining_Project-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EB91DC-68ED-47EA-BF12-8801F648E71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACC9C54-EEE0-4DC5-B8FE-614FAFBF368A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$44</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Variable Names</t>
   </si>
@@ -292,33 +292,13 @@
   </si>
   <si>
     <t>Frequency of vigorous physical activity</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Continuous</t>
-  </si>
-  <si>
-    <t>Categorical</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>Continuous</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Categorical</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,12 +315,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
@@ -348,7 +322,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -358,12 +332,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,13 +348,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,506 +633,373 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>49</v>
       </c>
-      <c r="C6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
       </c>
-      <c r="C7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>51</v>
       </c>
-      <c r="C8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
       </c>
-      <c r="C9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>53</v>
       </c>
-      <c r="C10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>54</v>
       </c>
-      <c r="C11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
       </c>
-      <c r="C12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>59</v>
       </c>
-      <c r="C16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>41</v>
       </c>
       <c r="B17" t="s">
         <v>60</v>
       </c>
-      <c r="C17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>61</v>
       </c>
-      <c r="C18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>11</v>
       </c>
       <c r="B19" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>25</v>
       </c>
       <c r="B20" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>
       </c>
-      <c r="C21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>37</v>
       </c>
       <c r="B22" t="s">
         <v>65</v>
       </c>
-      <c r="C22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>18</v>
       </c>
       <c r="B23" t="s">
         <v>66</v>
       </c>
-      <c r="C23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>43</v>
       </c>
       <c r="B24" t="s">
         <v>67</v>
       </c>
-      <c r="C24" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>29</v>
       </c>
       <c r="B25" t="s">
         <v>68</v>
       </c>
-      <c r="C25" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>10</v>
       </c>
       <c r="B26" t="s">
         <v>69</v>
       </c>
-      <c r="C26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>42</v>
       </c>
       <c r="B28" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>13</v>
       </c>
       <c r="B29" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>36</v>
       </c>
       <c r="B31" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>7</v>
       </c>
       <c r="B32" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>26</v>
       </c>
       <c r="B33" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>30</v>
       </c>
       <c r="B34" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>27</v>
       </c>
       <c r="B35" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>33</v>
       </c>
       <c r="B36" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>34</v>
       </c>
       <c r="B38" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>32</v>
       </c>
       <c r="B39" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>40</v>
       </c>
       <c r="B40" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>19</v>
       </c>
       <c r="B42" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>12</v>
       </c>
       <c r="B43" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>2</v>
       </c>
       <c r="B44" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>89</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C44" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <autoFilter ref="A1:B44" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
